--- a/data/Los Muermos.xlsx
+++ b/data/Los Muermos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica de Pasada El Gato</t>
+          <t>Parque Eólico Los Lagos del Sur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EL GATO HYDRO CHILE SPA</t>
+          <t>Eólica Los Lagos SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>30500</v>
+        <v>312000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/01/2019</t>
+          <t>10/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142335501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155682159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELECTRICA DE PASADA EL GATO</t>
+          <t>Central Hidroeléctrica de Pasada El Gato</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>31/10/2017</t>
+          <t>28/01/2019</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132837296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142335501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA DE PASADA EL GATO</t>
+          <t>CENTRAL HIDROELECTRICA DE PASADA EL GATO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>05/10/2017</t>
+          <t>31/10/2017</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132737147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132837296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELECTRICA DE PASADA EL GATO</t>
+          <t>CENTRAL HIDROELÉCTRICA DE PASADA EL GATO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10/11/2015</t>
+          <t>05/10/2017</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130882469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132737147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,40 +616,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>CENTRAL HIDROELECTRICA DE PASADA EL GATO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>EL GATO HYDRO CHILE SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>30500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>10/11/2015</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130882469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Plan de Cierre Vertedero Los Muermos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Los Muermos</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/04/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4537852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan de Cierre Vertedero Los Muermos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Ilustre Municipalidad de Los Muermos</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>23/04/2010</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4537852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE LOS MUERMOS, LOCALIDAD DE LOS MUERMOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Los Muermos</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>09/06/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE LOS MUERMOS, LOCALIDAD DE LOS MUERMOS (e-seia)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Ilustre Municipalidad de Los Muermos</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>09/06/2006</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BARRIO RESIDENCIAL INDEPENDENCIA, LOS MUERMOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Centro de Desarrollo de Recursos Humanos Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>278</v>
+        <v>4000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>02/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>BARRIO RESIDENCIAL INDEPENDENCIA, LOS MUERMOS (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,20 +1202,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Centro de Desarrollo de Recursos Humanos Ltda.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>02/12/2005</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Proyecto Tursitico Hacienda Parga</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cliffs Inversiones Chile S.A.</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/05/2002</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5481&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transformación de Las Lagunas de Estabilización de Los Muermos en Lodos Activados</t>
+          <t>Proyecto Tursitico Hacienda Parga</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Cliffs Inversiones Chile S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>750</v>
+        <v>2500</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>18/07/2001</t>
+          <t>22/05/2002</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5481&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Calle Leopoldo Guillén s/n Los Muermos</t>
+          <t>Transformación de Las Lagunas de Estabilización de Los Muermos en Lodos Activados</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Luis Haeger y cía. Ltda.</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10/03/2000</t>
+          <t>18/07/2001</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Planchado Los Indios</t>
+          <t>Estación de Servicio YPF Calle Leopoldo Guillén s/n Los Muermos</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sociedad Comercial y Agrícola Dumaq Ltda.</t>
+          <t>Luis Haeger y cía. Ltda.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>24/01/2000</t>
+          <t>10/03/2000</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Aereación de Lagunas Estabilización de Los Muermos</t>
+          <t>Estación de Servicio YPF Planchado Los Indios</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Sociedad Comercial y Agrícola Dumaq Ltda.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>190</v>
+        <v>450</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>24/01/2000</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2612&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Los Muermos</t>
+          <t>Aereación de Lagunas Estabilización de Los Muermos</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Los Muermos</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>29/07/1998</t>
+          <t>13/01/2000</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2612&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,43 +1528,91 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>Plan Regulador Comunal de Los Muermos</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>I. Municipalidad de Los Muermos</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>29/07/1998</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1341&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Los Muermos</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>Discoteca</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>Décima</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>María Cristina Jaramillo Diedrics</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="F26" t="n">
         <v>40</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>23/03/1998</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=797&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Los Muermos</t>
         </is>

--- a/data/Los Muermos.xlsx
+++ b/data/Los Muermos.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/05/2022</t>
+          <t>17/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Los Muermos.xlsx
+++ b/data/Los Muermos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/05/2022</t>
+          <t>20/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155682159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155914358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica de Pasada El Gato</t>
+          <t>Parque Eólico Los Lagos del Sur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EL GATO HYDRO CHILE SPA</t>
+          <t>Eólica Los Lagos SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>30500</v>
+        <v>312000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>28/01/2019</t>
+          <t>17/05/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142335501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155682159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELECTRICA DE PASADA EL GATO</t>
+          <t>Central Hidroeléctrica de Pasada El Gato</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>31/10/2017</t>
+          <t>28/01/2019</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132837296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142335501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA DE PASADA EL GATO</t>
+          <t>CENTRAL HIDROELECTRICA DE PASADA EL GATO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>05/10/2017</t>
+          <t>31/10/2017</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132737147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132837296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELECTRICA DE PASADA EL GATO</t>
+          <t>CENTRAL HIDROELÉCTRICA DE PASADA EL GATO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10/11/2015</t>
+          <t>05/10/2017</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130882469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132737147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,40 +664,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>CENTRAL HIDROELECTRICA DE PASADA EL GATO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>EL GATO HYDRO CHILE SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>30500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>10/11/2015</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130882469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Plan de Cierre Vertedero Los Muermos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Los Muermos</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/04/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4537852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan de Cierre Vertedero Los Muermos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Ilustre Municipalidad de Los Muermos</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>23/04/2010</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4537852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE LOS MUERMOS, LOCALIDAD DE LOS MUERMOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Los Muermos</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>09/06/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE LOS MUERMOS, LOCALIDAD DE LOS MUERMOS (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Ilustre Municipalidad de Los Muermos</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>09/06/2006</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BARRIO RESIDENCIAL INDEPENDENCIA, LOS MUERMOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Centro de Desarrollo de Recursos Humanos Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>278</v>
+        <v>4000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>02/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>BARRIO RESIDENCIAL INDEPENDENCIA, LOS MUERMOS (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Centro de Desarrollo de Recursos Humanos Ltda.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>02/12/2005</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Proyecto Tursitico Hacienda Parga</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cliffs Inversiones Chile S.A.</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>22/05/2002</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5481&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transformación de Las Lagunas de Estabilización de Los Muermos en Lodos Activados</t>
+          <t>Proyecto Tursitico Hacienda Parga</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Cliffs Inversiones Chile S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>750</v>
+        <v>2500</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>18/07/2001</t>
+          <t>22/05/2002</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5481&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Calle Leopoldo Guillén s/n Los Muermos</t>
+          <t>Transformación de Las Lagunas de Estabilización de Los Muermos en Lodos Activados</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Luis Haeger y cía. Ltda.</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10/03/2000</t>
+          <t>18/07/2001</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Planchado Los Indios</t>
+          <t>Estación de Servicio YPF Calle Leopoldo Guillén s/n Los Muermos</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sociedad Comercial y Agrícola Dumaq Ltda.</t>
+          <t>Luis Haeger y cía. Ltda.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>24/01/2000</t>
+          <t>10/03/2000</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Aereación de Lagunas Estabilización de Los Muermos</t>
+          <t>Estación de Servicio YPF Planchado Los Indios</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Sociedad Comercial y Agrícola Dumaq Ltda.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>190</v>
+        <v>450</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>24/01/2000</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2612&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Los Muermos</t>
+          <t>Aereación de Lagunas Estabilización de Los Muermos</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Los Muermos</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>29/07/1998</t>
+          <t>13/01/2000</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2612&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,43 +1576,91 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Plan Regulador Comunal de Los Muermos</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>I. Municipalidad de Los Muermos</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>29/07/1998</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1341&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Los Muermos</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>Discoteca</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>Décima</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>María Cristina Jaramillo Diedrics</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="F27" t="n">
         <v>40</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>23/03/1998</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=797&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>Los Muermos</t>
         </is>

--- a/data/Los Muermos.xlsx
+++ b/data/Los Muermos.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/05/2022</t>
+          <t>27/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Los Muermos.xlsx
+++ b/data/Los Muermos.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>27/05/2022</t>
+          <t>14/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Los Muermos.xlsx
+++ b/data/Los Muermos.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Los Muermos.xlsx
+++ b/data/Los Muermos.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/06/2022</t>
+          <t>27/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/data/Los Muermos.xlsx
+++ b/data/Los Muermos.xlsx
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
